--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1473.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1473.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.324245441237032</v>
+        <v>1.082804203033447</v>
       </c>
       <c r="B1">
-        <v>1.826222915597428</v>
+        <v>3.550858497619629</v>
       </c>
       <c r="C1">
-        <v>3.347837749345614</v>
+        <v>3.149245738983154</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>3.388283967971802</v>
       </c>
       <c r="E1">
-        <v>0.844914847272917</v>
+        <v>1.020687460899353</v>
       </c>
     </row>
   </sheetData>
